--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il15-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il15-Il2ra.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H2">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I2">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J2">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1016456666666667</v>
+        <v>0.01512566666666667</v>
       </c>
       <c r="N2">
-        <v>0.304937</v>
+        <v>0.045377</v>
       </c>
       <c r="O2">
-        <v>0.1609821199020816</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="P2">
-        <v>0.1609821199020815</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="Q2">
-        <v>0.6927393083563333</v>
+        <v>0.1102163465566667</v>
       </c>
       <c r="R2">
-        <v>6.234653775207</v>
+        <v>0.9919471190099999</v>
       </c>
       <c r="S2">
-        <v>0.03828854047807122</v>
+        <v>0.002086273458901704</v>
       </c>
       <c r="T2">
-        <v>0.03828854047807122</v>
+        <v>0.002086273458901705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H3">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I3">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J3">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1554283333333333</v>
+        <v>0.8534100000000001</v>
       </c>
       <c r="N3">
-        <v>0.466285</v>
+        <v>2.56023</v>
       </c>
       <c r="O3">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="P3">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="Q3">
-        <v>1.059280928181667</v>
+        <v>6.2185511811</v>
       </c>
       <c r="R3">
-        <v>9.533528353634999</v>
+        <v>55.9669606299</v>
       </c>
       <c r="S3">
-        <v>0.05854773968661539</v>
+        <v>0.1177102915063559</v>
       </c>
       <c r="T3">
-        <v>0.05854773968661539</v>
+        <v>0.1177102915063559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H4">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I4">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J4">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.272157</v>
+        <v>0.1323446666666667</v>
       </c>
       <c r="N4">
-        <v>0.8164710000000001</v>
+        <v>0.397034</v>
       </c>
       <c r="O4">
-        <v>0.4310307782216407</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="P4">
-        <v>0.4310307782216405</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="Q4">
-        <v>1.854814456209</v>
+        <v>0.9643572060466665</v>
       </c>
       <c r="R4">
-        <v>16.693330105881</v>
+        <v>8.67921485442</v>
       </c>
       <c r="S4">
-        <v>0.1025178411693933</v>
+        <v>0.01825421461272405</v>
       </c>
       <c r="T4">
-        <v>0.1025178411693933</v>
+        <v>0.01825421461272405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.815237</v>
+        <v>7.286709999999999</v>
       </c>
       <c r="H5">
-        <v>20.445711</v>
+        <v>21.86013</v>
       </c>
       <c r="I5">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438106</v>
       </c>
       <c r="J5">
-        <v>0.2378434356645352</v>
+        <v>0.1632739668438107</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1021786666666667</v>
+        <v>0.1828703333333333</v>
       </c>
       <c r="N5">
-        <v>0.306536</v>
+        <v>0.548611</v>
       </c>
       <c r="O5">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="P5">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="Q5">
-        <v>0.6963718296773332</v>
+        <v>1.332523086603333</v>
       </c>
       <c r="R5">
-        <v>6.267346467095999</v>
+        <v>11.99270777943</v>
       </c>
       <c r="S5">
-        <v>0.03848931433045526</v>
+        <v>0.02522318726582901</v>
       </c>
       <c r="T5">
-        <v>0.03848931433045526</v>
+        <v>0.02522318726582901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>7.981712</v>
       </c>
       <c r="I6">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J6">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1016456666666667</v>
+        <v>0.01512566666666667</v>
       </c>
       <c r="N6">
-        <v>0.304937</v>
+        <v>0.045377</v>
       </c>
       <c r="O6">
-        <v>0.1609821199020816</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="P6">
-        <v>0.1609821199020815</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="Q6">
-        <v>0.2704354791271111</v>
+        <v>0.04024290504711112</v>
       </c>
       <c r="R6">
-        <v>2.433919312144</v>
+        <v>0.362186145424</v>
       </c>
       <c r="S6">
-        <v>0.01494729642790641</v>
+        <v>0.0007617536538985469</v>
       </c>
       <c r="T6">
-        <v>0.01494729642790641</v>
+        <v>0.000761753653898547</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7.981712</v>
       </c>
       <c r="I7">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J7">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1554283333333333</v>
+        <v>0.8534100000000001</v>
       </c>
       <c r="N7">
-        <v>0.466285</v>
+        <v>2.56023</v>
       </c>
       <c r="O7">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="P7">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="Q7">
-        <v>0.4135280644355556</v>
+        <v>2.27055761264</v>
       </c>
       <c r="R7">
-        <v>3.72175257992</v>
+        <v>20.43501851376</v>
       </c>
       <c r="S7">
-        <v>0.02285619690259411</v>
+        <v>0.04297914267846435</v>
       </c>
       <c r="T7">
-        <v>0.02285619690259411</v>
+        <v>0.04297914267846435</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7.981712</v>
       </c>
       <c r="I8">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J8">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.272157</v>
+        <v>0.1323446666666667</v>
       </c>
       <c r="N8">
-        <v>0.8164710000000001</v>
+        <v>0.397034</v>
       </c>
       <c r="O8">
-        <v>0.4310307782216407</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="P8">
-        <v>0.4310307782216405</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="Q8">
-        <v>0.7240929309280001</v>
+        <v>0.3521123380231111</v>
       </c>
       <c r="R8">
-        <v>6.516836378352</v>
+        <v>3.169011042208</v>
       </c>
       <c r="S8">
-        <v>0.04002149316674977</v>
+        <v>0.006665096860126399</v>
       </c>
       <c r="T8">
-        <v>0.04002149316674977</v>
+        <v>0.0066650968601264</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7.981712</v>
       </c>
       <c r="I9">
-        <v>0.09285066215427032</v>
+        <v>0.05961564640488622</v>
       </c>
       <c r="J9">
-        <v>0.09285066215427033</v>
+        <v>0.05961564640488623</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1021786666666667</v>
+        <v>0.1828703333333333</v>
       </c>
       <c r="N9">
-        <v>0.306536</v>
+        <v>0.548611</v>
       </c>
       <c r="O9">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="P9">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="Q9">
-        <v>0.2718535632924444</v>
+        <v>0.4865394446702222</v>
       </c>
       <c r="R9">
-        <v>2.446682069632</v>
+        <v>4.378855002032</v>
       </c>
       <c r="S9">
-        <v>0.01502567565702003</v>
+        <v>0.009209653212396933</v>
       </c>
       <c r="T9">
-        <v>0.01502567565702004</v>
+        <v>0.009209653212396935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H10">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I10">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J10">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1016456666666667</v>
+        <v>0.01512566666666667</v>
       </c>
       <c r="N10">
-        <v>0.304937</v>
+        <v>0.045377</v>
       </c>
       <c r="O10">
-        <v>0.1609821199020816</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="P10">
-        <v>0.1609821199020815</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="Q10">
-        <v>0.5352103110775557</v>
+        <v>0.2875164970115556</v>
       </c>
       <c r="R10">
-        <v>4.816892799698</v>
+        <v>2.587648473104</v>
       </c>
       <c r="S10">
-        <v>0.02958172203133177</v>
+        <v>0.005442369080916674</v>
       </c>
       <c r="T10">
-        <v>0.02958172203133176</v>
+        <v>0.005442369080916675</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H11">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I11">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J11">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1554283333333333</v>
+        <v>0.8534100000000001</v>
       </c>
       <c r="N11">
-        <v>0.466285</v>
+        <v>2.56023</v>
       </c>
       <c r="O11">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="P11">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="Q11">
-        <v>0.8184003249877779</v>
+        <v>16.22205877744</v>
       </c>
       <c r="R11">
-        <v>7.36560292489</v>
+        <v>145.99852899696</v>
       </c>
       <c r="S11">
-        <v>0.04523397704240395</v>
+        <v>0.3070656189707406</v>
       </c>
       <c r="T11">
-        <v>0.04523397704240394</v>
+        <v>0.3070656189707407</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H12">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I12">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J12">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.272157</v>
+        <v>0.1323446666666667</v>
       </c>
       <c r="N12">
-        <v>0.8164710000000001</v>
+        <v>0.397034</v>
       </c>
       <c r="O12">
-        <v>0.4310307782216407</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="P12">
-        <v>0.4310307782216405</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="Q12">
-        <v>1.433029438526</v>
+        <v>2.515675890307556</v>
       </c>
       <c r="R12">
-        <v>12.897264946734</v>
+        <v>22.641083012768</v>
       </c>
       <c r="S12">
-        <v>0.07920527246166743</v>
+        <v>0.04761896039122619</v>
       </c>
       <c r="T12">
-        <v>0.07920527246166742</v>
+        <v>0.0476189603912262</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.265451333333334</v>
+        <v>19.00851733333333</v>
       </c>
       <c r="H13">
-        <v>15.796354</v>
+        <v>57.025552</v>
       </c>
       <c r="I13">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369328</v>
       </c>
       <c r="J13">
-        <v>0.1837578114223185</v>
+        <v>0.4259255588369329</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1021786666666667</v>
+        <v>0.1828703333333333</v>
       </c>
       <c r="N13">
-        <v>0.306536</v>
+        <v>0.548611</v>
       </c>
       <c r="O13">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="P13">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="Q13">
-        <v>0.5380167966382222</v>
+        <v>3.476093900919111</v>
       </c>
       <c r="R13">
-        <v>4.842151169744</v>
+        <v>31.284845108272</v>
       </c>
       <c r="S13">
-        <v>0.02973683988691537</v>
+        <v>0.06579861039404936</v>
       </c>
       <c r="T13">
-        <v>0.02973683988691537</v>
+        <v>0.06579861039404937</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2464976666666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H14">
-        <v>0.7394930000000001</v>
+        <v>0.343964</v>
       </c>
       <c r="I14">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J14">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1016456666666667</v>
+        <v>0.01512566666666667</v>
       </c>
       <c r="N14">
-        <v>0.304937</v>
+        <v>0.045377</v>
       </c>
       <c r="O14">
-        <v>0.1609821199020816</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="P14">
-        <v>0.1609821199020815</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="Q14">
-        <v>0.02505541966011112</v>
+        <v>0.001734228269777778</v>
       </c>
       <c r="R14">
-        <v>0.225498776941</v>
+        <v>0.015608054428</v>
       </c>
       <c r="S14">
-        <v>0.001384843386652111</v>
+        <v>3.282702179802526E-05</v>
       </c>
       <c r="T14">
-        <v>0.001384843386652111</v>
+        <v>3.282702179802526E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2464976666666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H15">
-        <v>0.7394930000000001</v>
+        <v>0.343964</v>
       </c>
       <c r="I15">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J15">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1554283333333333</v>
+        <v>0.8534100000000001</v>
       </c>
       <c r="N15">
-        <v>0.466285</v>
+        <v>2.56023</v>
       </c>
       <c r="O15">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="P15">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="Q15">
-        <v>0.03831272150055556</v>
+        <v>0.09784743908000001</v>
       </c>
       <c r="R15">
-        <v>0.344814493505</v>
+        <v>0.8806269517200001</v>
       </c>
       <c r="S15">
-        <v>0.002117590513926088</v>
+        <v>0.001852143729597775</v>
       </c>
       <c r="T15">
-        <v>0.002117590513926088</v>
+        <v>0.001852143729597775</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2464976666666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H16">
-        <v>0.7394930000000001</v>
+        <v>0.343964</v>
       </c>
       <c r="I16">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J16">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.272157</v>
+        <v>0.1323446666666667</v>
       </c>
       <c r="N16">
-        <v>0.8164710000000001</v>
+        <v>0.397034</v>
       </c>
       <c r="O16">
-        <v>0.4310307782216407</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="P16">
-        <v>0.4310307782216405</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="Q16">
-        <v>0.06708606546700002</v>
+        <v>0.01517393364177778</v>
       </c>
       <c r="R16">
-        <v>0.6037745892030001</v>
+        <v>0.136565402776</v>
       </c>
       <c r="S16">
-        <v>0.003707928079384384</v>
+        <v>0.0002872257701601508</v>
       </c>
       <c r="T16">
-        <v>0.003707928079384383</v>
+        <v>0.0002872257701601508</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2464976666666667</v>
+        <v>0.1146546666666667</v>
       </c>
       <c r="H17">
-        <v>0.7394930000000001</v>
+        <v>0.343964</v>
       </c>
       <c r="I17">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="J17">
-        <v>0.008602467078296965</v>
+        <v>0.002569077436020028</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1021786666666667</v>
+        <v>0.1828703333333333</v>
       </c>
       <c r="N17">
-        <v>0.306536</v>
+        <v>0.548611</v>
       </c>
       <c r="O17">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="P17">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="Q17">
-        <v>0.02518680291644445</v>
+        <v>0.02096693711155555</v>
       </c>
       <c r="R17">
-        <v>0.226681226248</v>
+        <v>0.188702434004</v>
       </c>
       <c r="S17">
-        <v>0.001392105098334382</v>
+        <v>0.0003968809144640773</v>
       </c>
       <c r="T17">
-        <v>0.001392105098334382</v>
+        <v>0.0003968809144640773</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.66654266666667</v>
+        <v>15.55827866666667</v>
       </c>
       <c r="H18">
-        <v>40.999628</v>
+        <v>46.674836</v>
       </c>
       <c r="I18">
-        <v>0.476945623680579</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="J18">
-        <v>0.4769456236805791</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1550,28 +1550,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.1016456666666667</v>
+        <v>0.01512566666666667</v>
       </c>
       <c r="N18">
-        <v>0.304937</v>
+        <v>0.045377</v>
       </c>
       <c r="O18">
-        <v>0.1609821199020816</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="P18">
-        <v>0.1609821199020815</v>
+        <v>0.01277774711566512</v>
       </c>
       <c r="Q18">
-        <v>1.389144840381778</v>
+        <v>0.2353293370191111</v>
       </c>
       <c r="R18">
-        <v>12.502303563436</v>
+        <v>2.117964033172</v>
       </c>
       <c r="S18">
-        <v>0.07677971757812004</v>
+        <v>0.004454523900150172</v>
       </c>
       <c r="T18">
-        <v>0.07677971757812004</v>
+        <v>0.004454523900150173</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.66654266666667</v>
+        <v>15.55827866666667</v>
       </c>
       <c r="H19">
-        <v>40.999628</v>
+        <v>46.674836</v>
       </c>
       <c r="I19">
-        <v>0.476945623680579</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="J19">
-        <v>0.4769456236805791</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1554283333333333</v>
+        <v>0.8534100000000001</v>
       </c>
       <c r="N19">
-        <v>0.466285</v>
+        <v>2.56023</v>
       </c>
       <c r="O19">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="P19">
-        <v>0.2461608390537786</v>
+        <v>0.7209372919747741</v>
       </c>
       <c r="Q19">
-        <v>2.124167949108889</v>
+        <v>13.27759059692</v>
       </c>
       <c r="R19">
-        <v>19.11751154198</v>
+        <v>119.49831537228</v>
       </c>
       <c r="S19">
-        <v>0.1174053349082391</v>
+        <v>0.2513300950896154</v>
       </c>
       <c r="T19">
-        <v>0.1174053349082391</v>
+        <v>0.2513300950896154</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.66654266666667</v>
+        <v>15.55827866666667</v>
       </c>
       <c r="H20">
-        <v>40.999628</v>
+        <v>46.674836</v>
       </c>
       <c r="I20">
-        <v>0.476945623680579</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="J20">
-        <v>0.4769456236805791</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.272157</v>
+        <v>0.1323446666666667</v>
       </c>
       <c r="N20">
-        <v>0.8164710000000001</v>
+        <v>0.397034</v>
       </c>
       <c r="O20">
-        <v>0.4310307782216407</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="P20">
-        <v>0.4310307782216405</v>
+        <v>0.1118011337973199</v>
       </c>
       <c r="Q20">
-        <v>3.719445252532001</v>
+        <v>2.059055204047111</v>
       </c>
       <c r="R20">
-        <v>33.47500727278801</v>
+        <v>18.531496836424</v>
       </c>
       <c r="S20">
-        <v>0.2055782433444457</v>
+        <v>0.03897563616308314</v>
       </c>
       <c r="T20">
-        <v>0.2055782433444457</v>
+        <v>0.03897563616308314</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.66654266666667</v>
+        <v>15.55827866666667</v>
       </c>
       <c r="H21">
-        <v>40.999628</v>
+        <v>46.674836</v>
       </c>
       <c r="I21">
-        <v>0.476945623680579</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="J21">
-        <v>0.4769456236805791</v>
+        <v>0.3486157504783503</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.1021786666666667</v>
+        <v>0.1828703333333333</v>
       </c>
       <c r="N21">
-        <v>0.306536</v>
+        <v>0.548611</v>
       </c>
       <c r="O21">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="P21">
-        <v>0.1618262628224993</v>
+        <v>0.154483827112241</v>
       </c>
       <c r="Q21">
-        <v>1.396429107623111</v>
+        <v>2.845147605866222</v>
       </c>
       <c r="R21">
-        <v>12.567861968608</v>
+        <v>25.606328452796</v>
       </c>
       <c r="S21">
-        <v>0.0771823278497742</v>
+        <v>0.0538554953255016</v>
       </c>
       <c r="T21">
-        <v>0.07718232784977422</v>
+        <v>0.05385549532550161</v>
       </c>
     </row>
   </sheetData>
